--- a/sem4/curse/Закупка.xlsx
+++ b/sem4/curse/Закупка.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vs\git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CC6BF1-6150-4FBE-8DD6-D91BE08C4652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Количество</t>
   </si>
@@ -73,12 +72,15 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>DSL-модем Mercusys MR70X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,11 +156,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,8 +233,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="A11:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +593,7 @@
         <v>38629.879999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -581,7 +629,7 @@
         <v>3936.7999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -740,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -748,49 +796,67 @@
         <v>8</v>
       </c>
       <c r="C19" s="9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9">
         <v>649.20000000000005</v>
       </c>
       <c r="E19" s="9">
         <f>C19 * D19</f>
-        <v>36355.200000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+        <v>31161.600000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9">
+        <v>8</v>
+      </c>
+      <c r="D20" s="18">
+        <v>149.69</v>
+      </c>
+      <c r="E20" s="9">
+        <f>C20 * D20</f>
+        <v>1197.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="9">
         <v>3</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>182.44</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>361.88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="7">
-        <f>SUM(E19:E20)</f>
-        <v>36717.08</v>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="7">
+        <f>SUM(E19:E21)</f>
+        <v>32721.000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
